--- a/0. Nomina/2. Descuentos - Retardos/2025/03. Retardos - MAR.xlsx
+++ b/0. Nomina/2. Descuentos - Retardos/2025/03. Retardos - MAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\0. Nomina\2. Descuentos - Retardos\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E59008F-776A-44EB-8FF0-6CFB5F367010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1177B17B-5008-43B2-B406-35426348086D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FEA9F4EF-C237-4344-8D76-DA654B147599}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>Partícipes ForEver</t>
+    <t>Partícipes FOREVER</t>
   </si>
 </sst>
 </file>
@@ -832,9 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDB9AAF-F9C8-433A-828A-83DBC5154AE3}">
   <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1574,7 +1572,7 @@
       <c r="AI13" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4y206n4Kr64XuIpPW0n3tB0GIZXq6JHE3uXZO/IZ4FMl8lL/8YJm7bK2NGbS9X2Jt7Jltn0KKj0umDD2UkN5pw==" saltValue="YIjvOp+27dkl2yg13y2YwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BF9vYiSLSbbAP/wrdWqUAtqKJGBTs/3FvvIEmin7t6+j1jMT+NiXOFAQzsVOCLDWoBwvWdyYcyqWa6bayRIg7g==" saltValue="JzzRWC1udRAALH/K1o1/1Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="C3:AG12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
